--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 10 (42, 52, 20, 51, 40)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 10 (42, 52, 20, 51, 40)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.133519467240106E-07</v>
+        <v>1.303490370430959E-14</v>
       </c>
       <c r="E3">
-        <v>2.133519467240106E-07</v>
+        <v>1.303490370430959E-14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9857622233968413</v>
+        <v>0.9734303091231553</v>
       </c>
       <c r="E4">
-        <v>0.9857622233968413</v>
+        <v>0.9734303091231553</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5.678541984957409E-19</v>
+        <v>3.231907912200274E-17</v>
       </c>
       <c r="E5">
-        <v>5.678541984957409E-19</v>
+        <v>3.231907912200274E-17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>8.619790876897772E-19</v>
+        <v>2.575603430795212E-38</v>
       </c>
       <c r="E6">
-        <v>8.619790876897772E-19</v>
+        <v>2.575603430795212E-38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.469016176887709E-07</v>
+        <v>1.497982658358462E-06</v>
       </c>
       <c r="E7">
-        <v>0.9999991530983823</v>
+        <v>0.9999985020173416</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999992368865321</v>
+        <v>0.9999999989252772</v>
       </c>
       <c r="E9">
-        <v>7.631134678609541E-07</v>
+        <v>1.074722755234347E-09</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.8541017802408191</v>
+        <v>4.534341690877145E-06</v>
       </c>
       <c r="E10">
-        <v>0.1458982197591809</v>
+        <v>0.9999954656583091</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.69480704685478E-06</v>
+        <v>8.038394568237695E-10</v>
       </c>
       <c r="E11">
-        <v>0.9999983051929532</v>
+        <v>0.9999999991961606</v>
       </c>
       <c r="F11">
-        <v>7.534722805023193</v>
+        <v>9.421274185180664</v>
       </c>
       <c r="G11">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
